--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
@@ -16,10 +16,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OpenMP!$A$1:$E$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pthreads!$A$1:$A$427</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">ShortenedOpenMP!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ShortenedOpenMP!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ShortenedOpenMP!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ShortenedOpenMP!$C$2:$C$31</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">All!$A$1:$E$898</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -1004,38 +1000,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1251154128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -23345,7 +23314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
@@ -28920,7 +28889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
